--- a/需求确认/后续开发计划&完成情况.xlsx
+++ b/需求确认/后续开发计划&完成情况.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="84">
   <si>
     <t>任务类型</t>
   </si>
@@ -139,7 +139,7 @@
     <t>2019.04.26</t>
   </si>
   <si>
-    <t>/</t>
+    <t>完成时间延后</t>
   </si>
   <si>
     <t>账户资金转移管理：支持账户资金由一个账户转移到另一个账户（只支持一对一操作）
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>需求确认</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
   <si>
     <t>测绘成果</t>
@@ -291,6 +294,9 @@
   </si>
   <si>
     <t>统计分析规则变动待定</t>
+  </si>
+  <si>
+    <t>所在区，配置成字典</t>
   </si>
 </sst>
 </file>
@@ -350,7 +356,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,6 +396,14 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,10 +415,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,104 +486,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -495,43 +501,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,139 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,22 +710,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,21 +736,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,8 +758,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,6 +787,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -809,10 +815,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,36 +827,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -860,94 +866,94 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1601,7 +1607,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1612,6 +1618,7 @@
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
     <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1900,8 +1907,8 @@
       <c r="F13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="10">
-        <v>0.6</v>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="62" customHeight="1" spans="1:7">
@@ -1924,18 +1931,18 @@
         <v>41</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="74" customHeight="1" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="78" customHeight="1" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>56</v>
@@ -1944,21 +1951,21 @@
         <v>23</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>22</v>
@@ -1970,18 +1977,18 @@
         <v>41</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>22</v>
@@ -1990,21 +1997,21 @@
         <v>33</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="126" customHeight="1" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>22</v>
@@ -2013,7 +2020,7 @@
         <v>44</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G18" s="12">
         <v>0.4</v>
@@ -2021,13 +2028,13 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A19" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>22</v>
@@ -2036,21 +2043,21 @@
         <v>23</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="86" customHeight="1" spans="1:7">
       <c r="A20" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>56</v>
@@ -2059,102 +2066,102 @@
         <v>33</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="38" customHeight="1" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="38" customHeight="1" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" ht="39" customHeight="1" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2348,14 +2355,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="54.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/需求确认/后续开发计划&完成情况.xlsx
+++ b/需求确认/后续开发计划&完成情况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="郑方瑞" sheetId="2" state="hidden" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="85">
   <si>
     <t>任务类型</t>
   </si>
@@ -133,7 +133,7 @@
     <t>预售监管资金扣划管理（可以划拨所有资金）：针对法院、税务部门扣划预售监管资金的管理，监管中心操作，直接对账户资金找那个的余额和利息进行操作</t>
   </si>
   <si>
-    <t>杜宝亚</t>
+    <t>/</t>
   </si>
   <si>
     <t>2019.04.26</t>
@@ -187,6 +187,9 @@
     <t>封盘/解封针对户室，查询所有未转件户室：根据坐落、企业查询，封盘/解封流程：
 选择户室：填写限制原因、拍照证件资料。
 开发办楼盘操作员申请--》楼盘管理员审核</t>
+  </si>
+  <si>
+    <t>贾涛</t>
   </si>
   <si>
     <t>楼盘表的注销：房屋灭失后，需要将楼盘表置为注销状态：选择幢（可以选择任何幢）填写灭失原因
@@ -200,9 +203,6 @@
   </si>
   <si>
     <t>需求确认</t>
-  </si>
-  <si>
-    <t>/</t>
   </si>
   <si>
     <t>测绘成果</t>
@@ -250,6 +250,9 @@
     <t>棚改项目管理、老旧小区改造、加装电梯，参考现有棚改系统进行改造</t>
   </si>
   <si>
+    <t>徐勇</t>
+  </si>
+  <si>
     <t>2019.05.22</t>
   </si>
   <si>
@@ -269,21 +272,22 @@
     <t>存量房资金监管系统</t>
   </si>
   <si>
-    <t>1.二手房监管账户管理：对监管账户的新增、变更及注销的管理（待定）
+    <t>1.二手房监管账户管理：对监管账户的新增、变更及注销的管理（待定），监管协议生效之前不可变更
 2.二手房监管协议管理：监管协议的签订、变更及注销（待定）</t>
   </si>
   <si>
+    <t>2019.05.18</t>
+  </si>
+  <si>
+    <t>1.档案管理的智能自动化。实现档案信息与对应扫描件的自动挂接，实现了档案的案卷号和档案存放位置的自动分配、自动归档等功能，档案的出借、归还管理</t>
+  </si>
+  <si>
     <t>需求未确认</t>
   </si>
   <si>
-    <t>2019.05.18</t>
-  </si>
-  <si>
-    <t>1.档案管理的智能自动化。实现档案信息与对应扫描件的自动挂接，实现了档案的案卷号和档案存放位置的自动分配、自动归档等功能，档案的出借、归还管理</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.房源信息核验：中介公司、个人通过系统核验房屋的真实性、有效性，产生租赁房源二维码，并发布（待定）
-2.租赁合同管理：变更、注销，合同备案（待定）
+不动产权证号、房屋坐落、建筑面积、用途
+2.租赁合同管理：变更、注销，合同备案（待定），发起——》开发办管理员审核结束
 </t>
   </si>
   <si>
@@ -304,10 +308,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -349,14 +353,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,7 +451,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -379,37 +466,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,13 +488,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -437,60 +495,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -501,187 +505,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,21 +714,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -736,6 +725,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,9 +764,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,8 +791,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,26 +811,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -815,10 +819,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,16 +831,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,119 +849,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -969,6 +973,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -988,14 +995,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1403,7 +1413,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.125" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="15" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="17" customWidth="1"/>
     <col min="3" max="3" width="30.375" customWidth="1"/>
     <col min="4" max="4" width="26.125" customWidth="1"/>
   </cols>
@@ -1412,7 +1422,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1426,13 +1436,13 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1440,13 +1450,13 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1454,13 +1464,13 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1468,13 +1478,13 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1482,13 +1492,13 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1496,13 +1506,13 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1510,13 +1520,13 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1524,13 +1534,13 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="18">
         <v>0.5</v>
       </c>
     </row>
@@ -1606,8 +1616,8 @@
   <sheetPr/>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1615,17 +1625,17 @@
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="85.625" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
-    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E1" t="s">
@@ -1636,13 +1646,13 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="70" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1654,18 +1664,18 @@
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1677,18 +1687,18 @@
       <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="51" customHeight="1" spans="1:7">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1700,18 +1710,18 @@
       <c r="F4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1723,18 +1733,18 @@
       <c r="F5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="71" customHeight="1" spans="1:7">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1746,18 +1756,18 @@
       <c r="F6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="57" customHeight="1" spans="1:7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1769,18 +1779,18 @@
       <c r="F7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="54" customHeight="1" spans="1:7">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1792,18 +1802,18 @@
       <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="58" customHeight="1" spans="1:7">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1815,18 +1825,18 @@
       <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1838,18 +1848,18 @@
       <c r="F10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="29" customHeight="1" spans="1:7">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1861,110 +1871,110 @@
       <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="10">
-        <v>0.7</v>
+      <c r="G11" s="11">
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="44" customHeight="1" spans="1:7">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>54</v>
+      <c r="C13" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="62" customHeight="1" spans="1:7">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>55</v>
+      <c r="C14" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>57</v>
+      <c r="G14" s="11">
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" ht="78" customHeight="1" spans="1:7">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="12">
-        <v>0.3</v>
+      <c r="G15" s="13">
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1976,18 +1986,18 @@
       <c r="F16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>57</v>
+      <c r="G16" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1999,18 +2009,18 @@
       <c r="F17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>57</v>
+      <c r="G17" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="126" customHeight="1" spans="1:7">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2022,68 +2032,68 @@
       <c r="F18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="13">
         <v>0.4</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>57</v>
+        <v>71</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="86" customHeight="1" spans="1:7">
-      <c r="A20" s="14" t="s">
-        <v>71</v>
+      <c r="A20" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>72</v>
+      <c r="C20" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="38" customHeight="1" spans="1:7">
-      <c r="A21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>75</v>
+      <c r="C21" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>37</v>
@@ -2091,77 +2101,77 @@
       <c r="F21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="38" customHeight="1" spans="1:7">
+      <c r="A22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" s="3" customFormat="1" ht="38" customHeight="1" spans="1:7">
-      <c r="A22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="55" customHeight="1" spans="1:7">
+      <c r="A23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" s="3" customFormat="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>79</v>
+      <c r="C23" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:7">
-      <c r="A24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>82</v>
+      <c r="C24" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>57</v>
+        <v>81</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2358,7 +2368,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2368,7 +2378,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
